--- a/data/trans_camb/P16A05-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Clase-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A05-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-0.4296610614135283</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.5278168533887597</v>
+        <v>-0.5278168533887601</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.05681231984581703</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.39400307882227</v>
+        <v>-2.483723020751654</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.377505571261725</v>
+        <v>-1.572791671154437</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.802734066110862</v>
+        <v>-1.851190323833537</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.319822775255911</v>
+        <v>-3.098974925655625</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.19330478331474</v>
+        <v>-3.385772780388189</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.497397974191121</v>
+        <v>-3.357739080977415</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.977241895255692</v>
+        <v>-2.044050727702073</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.483154063151964</v>
+        <v>-1.353917448969554</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.810829265239259</v>
+        <v>-1.970212882256162</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.770211460025722</v>
+        <v>2.58304999370688</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.689572578685443</v>
+        <v>3.307972202981092</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.514971497051816</v>
+        <v>2.369045783378131</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.556866863746331</v>
+        <v>2.834529147005005</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.190441808246565</v>
+        <v>2.342619175800968</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.848141321834008</v>
+        <v>1.666144668526062</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.991624613834529</v>
+        <v>1.937337941265081</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.126656537749</v>
+        <v>2.343579168519644</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.520715250038306</v>
+        <v>1.488104816303821</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.1182909333257336</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1453144206435701</v>
+        <v>-0.1453144206435702</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.01691630635075356</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5748850104820058</v>
+        <v>-0.5648180368561247</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3643783289196963</v>
+        <v>-0.3768531956013565</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4447862115515405</v>
+        <v>-0.4424703581079196</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6298874426551323</v>
+        <v>-0.6480765294147623</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6333919284623818</v>
+        <v>-0.6459142754966319</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5959125549114485</v>
+        <v>-0.6105249291568269</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4547481213976174</v>
+        <v>-0.4891608169980778</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3718205535268445</v>
+        <v>-0.3458562364538869</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4096161040124128</v>
+        <v>-0.4481017383019375</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.384584906203957</v>
+        <v>1.251037003289793</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.872240626664531</v>
+        <v>1.631908755926978</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.324027390276128</v>
+        <v>1.105617873810154</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.225500709636407</v>
+        <v>1.287616325441371</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.119205745984934</v>
+        <v>1.103905569983875</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9678183849160519</v>
+        <v>0.8534949640719167</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7845079059509737</v>
+        <v>0.808831626200368</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8565115100516419</v>
+        <v>1.019128034881418</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6253146132929011</v>
+        <v>0.625822947529836</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.455789103719775</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.579894834359679</v>
+        <v>1.579894834359678</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.31293463741604</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2845947199510447</v>
+        <v>-0.09776841418402114</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8959717633476114</v>
+        <v>-0.875500035544435</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4426200488789665</v>
+        <v>-0.5190775419518887</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.724391241351943</v>
+        <v>-1.582210686824008</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.791642387740754</v>
+        <v>-2.762311833099032</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.7203698668791164</v>
+        <v>-0.3056315693814709</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.1189964450138571</v>
+        <v>-0.3951933508405611</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.018359182268155</v>
+        <v>-1.208059658815629</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03071556178324804</v>
+        <v>0.1326257459392929</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.165720513654118</v>
+        <v>5.133885126697281</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.847973158289778</v>
+        <v>3.716381165765343</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.550807171939304</v>
+        <v>3.755608979287605</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.675201325547677</v>
+        <v>4.542547455458867</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.370181853399375</v>
+        <v>3.08014653487278</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.093378749200059</v>
+        <v>5.283786602890361</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.841645969105436</v>
+        <v>3.987852072542915</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.599829952657329</v>
+        <v>2.766966168895508</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.459566218009787</v>
+        <v>3.400687433075875</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.9888738182550227</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.073175113965802</v>
+        <v>1.073175113965801</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.3282006134687708</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3029075408522707</v>
+        <v>-0.3081449507095208</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5457815352325013</v>
+        <v>-0.5057120914894272</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2966648630261958</v>
+        <v>-0.3800943834343701</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3671197646835464</v>
+        <v>-0.3172159213779401</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5407048425173004</v>
+        <v>-0.530414818982242</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1807034074169274</v>
+        <v>-0.08851146414371339</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0656477422855163</v>
+        <v>-0.1328306951618321</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3263507265489904</v>
+        <v>-0.3463804946174296</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.01809885822657831</v>
+        <v>0.02133805224058228</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7.070665559203613</v>
+        <v>7.365346876235234</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6.627875256755238</v>
+        <v>5.515913039671095</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6.341707119424478</v>
+        <v>6.544853008468521</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.663826081316321</v>
+        <v>1.726652066713463</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.349334981349245</v>
+        <v>1.253468555487822</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.005074494821477</v>
+        <v>2.036503082629574</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.903283076355474</v>
+        <v>2.257458478857612</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.292642117760423</v>
+        <v>1.550713042932354</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.906416793998766</v>
+        <v>1.854690105036662</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.3284921742616184</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.344169908250204</v>
+        <v>3.344169908250203</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.897084627180896</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1496147421771731</v>
+        <v>-0.0472806016322499</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.493525731234271</v>
+        <v>-1.612255451919336</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.92159354695337</v>
+        <v>1.059930694477219</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1407236328323576</v>
+        <v>-0.1152080643660993</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.157369500398326</v>
+        <v>-0.9359892479662614</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.200293573415406</v>
+        <v>1.17872140323149</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.092966467094476</v>
+        <v>1.03012195105406</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.7148038140596219</v>
+        <v>-0.7173162507653367</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.952915359275564</v>
+        <v>2.134135060692519</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.743023093189381</v>
+        <v>4.665195109257454</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.478075221877604</v>
+        <v>2.204248640634942</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.054524819043198</v>
+        <v>6.223529543686825</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.659838948523157</v>
+        <v>10.1152681523186</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.95158572528211</v>
+        <v>10.38089757380693</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.7020810207828</v>
+        <v>11.15959493313424</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.195901339294002</v>
+        <v>5.110290928422367</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.418463029598601</v>
+        <v>3.480584828100888</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.331998821974327</v>
+        <v>6.907191669508049</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1283106659408995</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.306249285577689</v>
+        <v>1.306249285577688</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>1.04267736852256</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.006456867829074496</v>
+        <v>-0.07342868416849226</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4547086609460926</v>
+        <v>-0.4978034520798172</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2363566509429046</v>
+        <v>0.2067907551676033</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.05092830575751606</v>
+        <v>-0.08360572547882583</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.227153014054714</v>
+        <v>-0.214894973962991</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07662867108215225</v>
+        <v>0.06649025955204488</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.25746059467376</v>
+        <v>0.2497838900027498</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.190893744994784</v>
+        <v>-0.1955605406105699</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4213914911546862</v>
+        <v>0.5269186927359248</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.606223849511935</v>
+        <v>2.689666441704254</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.406206449844291</v>
+        <v>1.307132924730782</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.518255802579249</v>
+        <v>3.461832952004105</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.034830226087241</v>
+        <v>3.594219590442669</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>4.312133171847132</v>
+        <v>3.785088827444018</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.271010031664591</v>
+        <v>4.504006346251914</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.48643342391827</v>
+        <v>2.331770732665238</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.502333634377796</v>
+        <v>1.497657536196537</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.900992061551502</v>
+        <v>3.126573386453632</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.128221318877848</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.775440755653988</v>
+        <v>1.775440755653989</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.557644263340256</v>
@@ -1297,7 +1297,7 @@
         <v>2.448555021185531</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.596548286588402</v>
+        <v>2.596548286588401</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.9753660112813207</v>
@@ -1306,7 +1306,7 @@
         <v>1.817983244281286</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.304174287131629</v>
+        <v>2.30417428713163</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.8021582478206135</v>
+        <v>-0.9564632459017699</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4256348898498157</v>
+        <v>-0.3377842396231465</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3004486578940183</v>
+        <v>0.4086289778483355</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.7096730895346964</v>
+        <v>-0.7043237328875632</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.3165545381213966</v>
+        <v>-0.06357975091170981</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04803298502182809</v>
+        <v>0.3339303950396361</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.2110133660633113</v>
+        <v>-0.3004290119662573</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4803296124702197</v>
+        <v>0.5521343478119557</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.197872695205049</v>
+        <v>1.039360206185386</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.917281231620018</v>
+        <v>1.917510176182544</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.518755178569768</v>
+        <v>2.669925186279607</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.121509196764829</v>
+        <v>3.171622037091188</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.042155451588753</v>
+        <v>3.971374082550148</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.739529063387319</v>
+        <v>5.046131599375772</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.600306640838488</v>
+        <v>4.717284500166762</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.354328954315759</v>
+        <v>2.327127677989465</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.134010638863211</v>
+        <v>3.21738686762092</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.618872291610891</v>
+        <v>3.594490520890101</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.437029998608841</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6877381751173507</v>
+        <v>0.687738175117351</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2984683532062039</v>
@@ -1402,7 +1402,7 @@
         <v>0.4691804169334818</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4975381795176558</v>
+        <v>0.4975381795176555</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2750387640990643</v>
@@ -1411,7 +1411,7 @@
         <v>0.5126443395367758</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.6497430101844504</v>
+        <v>0.6497430101844506</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2820417671642368</v>
+        <v>-0.3117352074903577</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1459393049512701</v>
+        <v>-0.1124619723408117</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.06844397230470317</v>
+        <v>0.1270379196410562</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1210021223346246</v>
+        <v>-0.1233993977288533</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.04716163085285544</v>
+        <v>-0.02965161267515216</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004031318518330176</v>
+        <v>0.02508811392351457</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.05975734127913941</v>
+        <v>-0.08527393960952076</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.115618348451347</v>
+        <v>0.1252122775981096</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2592466924446329</v>
+        <v>0.2541474266738202</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9666994913421992</v>
+        <v>0.9558043530615941</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.185232452899437</v>
+        <v>1.34427455925873</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.574039727338334</v>
+        <v>1.71483286792549</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9775309729926472</v>
+        <v>1.007624961123314</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.14805392472462</v>
+        <v>1.259501774804594</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.133523202135841</v>
+        <v>1.207524548806065</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7982300752389758</v>
+        <v>0.7588410472363386</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.037707771349005</v>
+        <v>1.055648889830211</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.214266551882743</v>
+        <v>1.275463151162038</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>2.495292618914982</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3.099641392315506</v>
+        <v>3.099641392315503</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.784034800067188</v>
+        <v>-3.849016420533125</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.447800312530216</v>
+        <v>-2.145692545124135</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.214283016538791</v>
+        <v>-1.15465063147597</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.169800866618614</v>
+        <v>-1.236546259275996</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.400392280548353</v>
+        <v>1.610613662741943</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.2714311390031</v>
+        <v>1.465304693891056</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.612980963777753</v>
+        <v>-1.492040287225639</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.4190809991404644</v>
+        <v>0.3493838226401106</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.135786180013036</v>
+        <v>1.30783731345085</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.098913013509227</v>
+        <v>1.207555630174333</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.789653313746799</v>
+        <v>2.956321906726726</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.403098829387572</v>
+        <v>4.572659556616259</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.492168869518243</v>
+        <v>4.592383854853767</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.568904290586131</v>
+        <v>7.813548080680538</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.798448466336882</v>
+        <v>6.838365037032772</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.352531591235719</v>
+        <v>2.454437565378855</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.535604428609009</v>
+        <v>4.719785381164134</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.095841918113723</v>
+        <v>5.053332813132359</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.6863785095588928</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6100679957532824</v>
+        <v>0.6100679957532822</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.07913557463202174</v>
@@ -1625,7 +1625,7 @@
         <v>0.4342244170103032</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.5393916394079885</v>
+        <v>0.5393916394079881</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6662286380931647</v>
+        <v>-0.6674594412843802</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4324974058840603</v>
+        <v>-0.4100508889656949</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2302832404590248</v>
+        <v>-0.2418657165183469</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1399056557635517</v>
+        <v>-0.1543516818029723</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1695846670082637</v>
+        <v>0.1680986234655322</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1311146712642424</v>
+        <v>0.1540747343444655</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2402876869280013</v>
+        <v>-0.2214637399671401</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.05168918783201663</v>
+        <v>0.04865274077666065</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1586977964947912</v>
+        <v>0.1738747115657357</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5739441896693724</v>
+        <v>0.5208719918522172</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.184952795915907</v>
+        <v>1.249475752094933</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.868864427440096</v>
+        <v>1.745399347480978</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.847285235465537</v>
+        <v>0.8505334225025971</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.419954335463442</v>
+        <v>1.476248784190879</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.252263468125619</v>
+        <v>1.321330107906386</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5050491959926166</v>
+        <v>0.5467595848524036</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.9681628596960342</v>
+        <v>0.9948718809604215</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.102693671453269</v>
+        <v>1.103363774927067</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>1.833680673960527</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>4.759287650213482</v>
+        <v>4.759287650213479</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.519024325120272</v>
@@ -1734,7 +1734,7 @@
         <v>1.44087193050771</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>3.892216868293084</v>
+        <v>3.892216868293081</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.108604457149294</v>
+        <v>-1.955383412732656</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.748282582714362</v>
+        <v>-1.886207737520508</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.185147291486906</v>
+        <v>-1.075955956398063</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.05082414595115119</v>
+        <v>-0.2132228406460236</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.2715526080040415</v>
+        <v>-0.3323559004309444</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>2.574375304957772</v>
+        <v>2.675080665109077</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.3107104099737845</v>
+        <v>-0.2800024477012478</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.25926274771333</v>
+        <v>-0.2083337576153073</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>2.091434724385889</v>
+        <v>2.167563245844669</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.604516832922028</v>
+        <v>2.678358681644556</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.387981182000666</v>
+        <v>2.400112782889749</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.484883770691686</v>
+        <v>4.499957882572094</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.012537114248853</v>
+        <v>4.244719259470018</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.057992507075053</v>
+        <v>4.025395652355326</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.088979273950743</v>
+        <v>7.147176275740002</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.129000701285973</v>
+        <v>3.127928333097868</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.267931225469805</v>
+        <v>3.557341620806386</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.847729123172268</v>
+        <v>5.79610688801828</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.3322000977653163</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8622198211204005</v>
+        <v>0.8622198211204</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.320380449259354</v>
@@ -1839,7 +1839,7 @@
         <v>0.3038971718801821</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.8209152205510868</v>
+        <v>0.8209152205510862</v>
       </c>
     </row>
     <row r="38">
@@ -1849,30 +1849,32 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C38" s="6" t="inlineStr"/>
+      <c r="C38" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="D38" s="6" t="n">
-        <v>-0.839452401964213</v>
+        <v>-0.8367931847434535</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6846170700552715</v>
+        <v>-0.6443659073071712</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.007491778960708398</v>
+        <v>-0.05041742917178047</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.04378256057578144</v>
+        <v>-0.05082883923970165</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4116853079206493</v>
+        <v>0.4065632385299234</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.05139666787359853</v>
+        <v>-0.04882460647398713</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.04871086365420274</v>
+        <v>-0.04730620378005768</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.3642412836999263</v>
+        <v>0.3543948802482225</v>
       </c>
     </row>
     <row r="39">
@@ -1882,30 +1884,32 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C39" s="6" t="inlineStr"/>
+      <c r="C39" s="6" t="n">
+        <v>7.856260195670419</v>
+      </c>
       <c r="D39" s="6" t="n">
-        <v>4.972510915090813</v>
+        <v>3.778555320253989</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>8.320219770293813</v>
+        <v>8.09064703860594</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.8897974744648983</v>
+        <v>0.8966750724472006</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.8719772861637131</v>
+        <v>0.8960170639980493</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.528212951453932</v>
+        <v>1.552587493644323</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7788864779620477</v>
+        <v>0.7948198352588667</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.8132509675388884</v>
+        <v>0.8633680319543289</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.49454531669216</v>
+        <v>1.387885153222349</v>
       </c>
     </row>
     <row r="40">
@@ -1926,7 +1930,7 @@
         <v>0.9037539352557065</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1.762939761651824</v>
+        <v>1.762939761651823</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>1.815253195787457</v>
@@ -1935,7 +1939,7 @@
         <v>2.328899602100014</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>3.138681807516197</v>
+        <v>3.138681807516194</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.276414553997019</v>
@@ -1944,7 +1948,7 @@
         <v>1.637729356370701</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.483730100884715</v>
+        <v>2.483730100884714</v>
       </c>
     </row>
     <row r="41">
@@ -1955,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.1320126056681891</v>
+        <v>-0.13049265811241</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.02766344707822292</v>
+        <v>0.1144121606538636</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.000281414297484</v>
+        <v>0.9133637436088921</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.5973767150093625</v>
+        <v>0.6461336932803681</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.078385870576279</v>
+        <v>1.113197609358301</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.000003805556017</v>
+        <v>1.945572777013961</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.5852924362714879</v>
+        <v>0.5543940025491928</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.8934186760509442</v>
+        <v>0.8828382458458963</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.745590308259586</v>
+        <v>1.812984937608177</v>
       </c>
     </row>
     <row r="42">
@@ -1990,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.580049292578828</v>
+        <v>1.596587978155108</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.756501641354732</v>
+        <v>1.781540093713415</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.64794839475533</v>
+        <v>2.685970882507061</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.977306937702675</v>
+        <v>2.976097893970113</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.544630148789744</v>
+        <v>3.461097649902226</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>4.10022755517028</v>
+        <v>4.151085272090378</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.984385226097952</v>
+        <v>2.000056508639211</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.403362270314206</v>
+        <v>2.384959861615041</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.198272509583236</v>
+        <v>3.199645986136627</v>
       </c>
     </row>
     <row r="43">
@@ -2031,7 +2035,7 @@
         <v>0.3494336057201055</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.6816350928608036</v>
+        <v>0.6816350928608033</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.3424541024210299</v>
@@ -2040,7 +2044,7 @@
         <v>0.4393553608480939</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.592123712368347</v>
+        <v>0.5921237123683465</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.3218575692204528</v>
@@ -2049,7 +2053,7 @@
         <v>0.4129658252734728</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.626291301965436</v>
+        <v>0.6262913019654357</v>
       </c>
     </row>
     <row r="44">
@@ -2060,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.04874545421221924</v>
+        <v>-0.04259770296092127</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.008193957159119516</v>
+        <v>0.03035799747239608</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3033945536792087</v>
+        <v>0.2969663069882254</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.0985710999729069</v>
+        <v>0.1000026833938013</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1764424876172253</v>
+        <v>0.1839250786170606</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3308430502790536</v>
+        <v>0.3182851532646497</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1285364537171823</v>
+        <v>0.1154578830817229</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.2065426379504655</v>
+        <v>0.1959207556420827</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.3982130033817403</v>
+        <v>0.4188802165356785</v>
       </c>
     </row>
     <row r="45">
@@ -2095,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7041255008359004</v>
+        <v>0.7338610130900542</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7882249388370614</v>
+        <v>0.7953286120202206</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.19791854850208</v>
+        <v>1.227727800676861</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.6115891381398486</v>
+        <v>0.611770416481236</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7392292101425643</v>
+        <v>0.7053078005261397</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.8455251652180162</v>
+        <v>0.864417996445609</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5442217399465079</v>
+        <v>0.5410322524462695</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.6716854452254167</v>
+        <v>0.6437625081538092</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.8760612521062601</v>
+        <v>0.8858779008492159</v>
       </c>
     </row>
     <row r="46">
